--- a/data/out/Excel/families_mean_stdev_counts.xlsx
+++ b/data/out/Excel/families_mean_stdev_counts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Bacteria Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayo\Desktop\Code\SequenceAnalysis\data\out\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0496C89-B62F-484D-A427-8AD12EACFDE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD01B5FD-1331-4604-A417-249A40C5184E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-3360" yWindow="7305" windowWidth="17445" windowHeight="11970" tabRatio="993" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="families_mean_stdev_counts" sheetId="1" r:id="rId1"/>
@@ -6500,8 +6500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="L172" sqref="L172"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="A267" sqref="A267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
